--- a/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="문서개요" sheetId="1" r:id="rId1"/>
-    <sheet name="시스템 룰" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="흐름도" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="개요" sheetId="2" r:id="rId2"/>
+    <sheet name="시스템 룰" sheetId="5" r:id="rId3"/>
+    <sheet name="예시 이미지 " sheetId="7" r:id="rId4"/>
+    <sheet name="흐름도" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>신규 프로젝트_몬스터(맥)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,11 +148,299 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터의 체력은 () 값에 의해서 결정된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
+    <t xml:space="preserve"> - 체력의 감소는 전투룰에 따라 감소 된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterHP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterDef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 체력은 감소 되면 다시 회복 되지 않는다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 체력값이 0이 될 경우 몬스터의 사망 애니메이션을 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니메이션이 종류 된 후 디졸브 쉐이더를 이용해 () 값 동안 몬스터의 사체를 제거 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 처치 시 디졸브 쉐이더 재생 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사망 애니메이션 출력 중 MonsterCount를 감소 시킨다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 스텟 정보 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터는 스폰으로 생성되며 생성 시 스폰 이펙트 출력 후 몬스터를 출력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 시간은 이펙트 출력시간에 맞춰 조절한다 _(현재 초)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 제거  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 몬스터(맥) 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 제거 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 이동 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터의 이동 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터가 유저에게 ()값 내에 근접 했을 경우 공격을 시작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터와의 플레이어 캐릭터 간의 거리 값은 ()을 단위로 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터가 보유하고 있는 체력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터의 방어력 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터의 공격이 크리티컬 공격일 확률 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격을 실행하기 위한 최소 거리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발싸한 탄막이 이동하는 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발사 된 탄막이 삭제 되는 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격은 두가지 타입으로 일반 공격과 스킬 공격으로 나눠진다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 생성 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 제거 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 공격 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 시 대기 상태로 스폰한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 이후 플레이어와 거리가 ()값 보다 멀 경우 () 값 까지 이동 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 몬스터(맥) 스킬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 가능한 거리에 들어온다면 즉시 공격 상태로 전환한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 일반 공격 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트를 발사하는 동안 발사 애니메이션(애니파일명)을 출력한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 발사 애니메이션 속도에 맞춰 이펙트의 크기가 커지는 속도를 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트(이펙트 명)를 플레이어가 존재하는 위치에 직선으로 발사한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트는 기를 모으는 느낌으로 시간이 지남에 따라 커지며 발사된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 발사된 이펙트의 이동 속도는 ()에 따라 결정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니 시간을 조절함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이펙트 발사를 위해서 필요한 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션 속도 조절 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이펙트와 연계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이펙트와 연계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트는 발사 후 시간이 지남에 따라 삭제 되며 삭제 시간은 () 값을 통해서 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 체력은 (MonsterHP) 값에 의해서 결정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 방어력은 (MonsterDef) 값에 의해서 결정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 크리티컬 확률은 (Critical ) 값에 의해서 결정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 크리티컬 데미지 값은 (CriticalDamage) 값에 의해서 결정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트를 발사하는데 필요한 시간은 ()값에 따라 결정한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발사한 이펙트가 이동하는 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발사 된 이펙트가 삭제 되는 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트(이펙트 명)를 플레이어가 존재하는 위치에 직선으로 발사한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트는 기를 모으는 느낌으로 시간이 지남에 따라 커지며 발사된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트를 발사하는데 필요한 시간은 ()값에 따라 결정한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트의 형체가 일반 공격과는 다른 형체로 발사한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,6 +527,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -246,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +608,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,37 +1125,570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>30</v>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="L37" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="L40" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="L41" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+      <c r="C67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -800,6 +1707,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3087E2E-DDB3-42B7-AD88-4A9B71970FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서개요" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t>신규 프로젝트_몬스터(맥)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -204,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 애니메이션이 종류 된 후 디졸브 쉐이더를 이용해 () 값 동안 몬스터의 사체를 제거 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">몬스터 처치 시 디졸브 쉐이더 재생 속도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,10 +269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터가 유저에게 ()값 내에 근접 했을 경우 공격을 시작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 몬스터와의 플레이어 캐릭터 간의 거리 값은 ()을 단위로 한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -332,18 +325,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스폰 이후 플레이어와 거리가 ()값 보다 멀 경우 () 값 까지 이동 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2.3 몬스터(맥) 스킬 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 공격이 가능한 거리에 들어온다면 즉시 공격 상태로 전환한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 일반 공격 구성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -440,15 +425,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 이펙트의 형체가 일반 공격과는 다른 형체로 발사한다. </t>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이펙트의 형체가 일반 공격과는 다른 형체로 발사한다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기본 발사체와 동일한 형태로 데이터를 관리한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터(맥)의 경우 공격 범위 이펙트를 표기 하지 않고 공격 전조 애니메이션을 이용하여 공격을 알린다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 몬스터는 공격 전 전모 애니메이션을 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전조 예시 자료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 이후 플레이어와 거리가 (AttackRange)값 보다 멀 경우 (AttackRange) 값 까지 이동 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터와의 플레이어 캐릭터 간의 거리 값은 미터 단위로 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 가능한 거리(AttackRange)에 들어온다면 즉시 공격 상태로 전환한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 출력 조건 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 표기하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 예시 이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShaderTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니메이션이 종류 된 후 디졸브 쉐이더를 이용해 (ShaderTime) 값 동안 몬스터의 사체를 제거 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터가 유저에게 공격 범위 값() 내에 근접 했을 경우 공격을 시작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격을 실행하기 위한 거리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 범위는 ()값을 통해서 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터는 공격 범위내에 플레이어가 존재할 경우 공격을 실행한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 범위 예시 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +562,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -593,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +707,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,13 +725,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,6 +750,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D709BBE3-05EA-4F6B-89A2-1685510279C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771526" y="6029325"/>
+          <a:ext cx="2581274" cy="2529277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,7 +1069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
@@ -1073,11 +1226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,11 +1277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,6 +1290,7 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1154,13 +1308,13 @@
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1172,13 +1326,13 @@
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1188,13 +1342,13 @@
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1204,13 +1358,13 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1218,15 +1372,15 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1234,29 +1388,31 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1269,431 +1425,511 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="L18" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="L56" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="15"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="L59" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="L60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="10" t="s">
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="2" t="s">
+      <c r="I93" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="12" t="s">
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+      <c r="C94" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="3" t="s">
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
+      <c r="C95" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
+      <c r="C96" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
+      <c r="C97" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="L37" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="7" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="L40" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="L41" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="3"/>
-      <c r="C66" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="3"/>
-      <c r="C67" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
-      <c r="H69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>101</v>
-      </c>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C64:G64"/>
+  <mergeCells count="31">
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="I98:J98"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1706,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:N2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1717,13 +1953,13 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1746,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3087E2E-DDB3-42B7-AD88-4A9B71970FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA25563-7143-441D-AEC8-6ED47D115366}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
   <si>
     <t>신규 프로젝트_몬스터(맥)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,10 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 몬스터 제거  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 몬스터(맥) 룰 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -520,12 +516,32 @@
     <t xml:space="preserve">공격 범위 예시 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> - 해당 범위 내에 플레이어가 존재 할 경우 공격 애니메이션 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 후 Idle 상태 유지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 후 Idle 상태에서 다음 공격까지 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 몬스터(맥) 일반 공격 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -676,6 +692,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +753,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,8 +777,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -758,13 +810,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>167077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1076,17 +1128,17 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="33.75">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1112,111 +1164,111 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="4"/>
     </row>
   </sheetData>
@@ -1233,39 +1285,39 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="33.75">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1278,13 +1330,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:L108"/>
+  <dimension ref="B2:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
@@ -1294,27 +1346,27 @@
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="33.75">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1322,528 +1374,541 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9">
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9">
       <c r="B10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9">
       <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="F29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+    <row r="30" spans="2:12">
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="49" spans="2:12">
+      <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="13" t="s">
-        <v>115</v>
+    <row r="50" spans="2:12">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="3"/>
+      <c r="C57" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="L57" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="3"/>
+      <c r="C58" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="L56" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="9" t="s">
+      <c r="I58" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="15"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="15"/>
+      <c r="J58" s="10"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12">
       <c r="B59" s="3"/>
       <c r="C59" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="10"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="3"/>
+      <c r="C60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="L59" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="I60" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" s="10"/>
       <c r="L60" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12">
+      <c r="B61" s="3"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="L61" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
       <c r="B63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J93" s="12"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="3"/>
-      <c r="C94" s="13" t="s">
-        <v>63</v>
+    <row r="94" spans="2:10">
+      <c r="B94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="3"/>
+      <c r="C95" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="3"/>
+      <c r="C96" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="3"/>
-      <c r="C95" s="9" t="s">
+      <c r="I96" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I95" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="3"/>
-      <c r="C96" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" s="3"/>
       <c r="C97" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
       <c r="H97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I97" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>108</v>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="3"/>
+      <c r="C98" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="6" t="s">
+      <c r="G98" s="10"/>
+      <c r="H98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I98" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J98" s="11"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J99" s="13"/>
+    </row>
+    <row r="101" spans="2:10">
       <c r="B101" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -1851,12 +1916,12 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
       <c r="B102" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -1864,62 +1929,76 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H104" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="H105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
       <c r="B107" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="I96:J96"/>
+  <mergeCells count="32">
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="I99:J99"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C55:G55"/>
     <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C61:G61"/>
     <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I94:J94"/>
     <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="I97:J97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1934,7 +2013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,17 +2028,17 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +2053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1987,7 +2066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
+++ b/Document/시스템 기획서/몬스터/신규프로젝트_몬스터(맥)_강일구.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA25563-7143-441D-AEC8-6ED47D115366}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="문서개요" sheetId="1" r:id="rId1"/>
     <sheet name="개요" sheetId="2" r:id="rId2"/>
     <sheet name="시스템 룰" sheetId="5" r:id="rId3"/>
-    <sheet name="예시 이미지 " sheetId="7" r:id="rId4"/>
-    <sheet name="흐름도" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="몬스터 피격" sheetId="8" r:id="rId4"/>
+    <sheet name="UI" sheetId="6" r:id="rId5"/>
+    <sheet name="흐름도" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
   <si>
     <t>신규 프로젝트_몬스터(맥)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>19.07.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">강일구 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterHP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterDef</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Critical </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,22 +219,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공격 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>탄막 제거 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막 이동 속도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">몬스터의 이동 속도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -265,10 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터와의 플레이어 캐릭터 간의 거리 값은 ()을 단위로 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">몬스터가 보유하고 있는 체력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -281,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공격을 실행하기 위한 최소 거리 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">발싸한 탄막이 이동하는 속도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">발사 된 탄막이 삭제 되는 속도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스폰 시 대기 상태로 스폰한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2.3 몬스터(맥) 스킬 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,10 +303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 발사된 이펙트의 이동 속도는 ()에 따라 결정된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 애니 시간을 조절함 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,10 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 이펙트는 발사 후 시간이 지남에 따라 삭제 되며 삭제 시간은 () 값을 통해서 조절한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 몬스터의 체력은 (MonsterHP) 값에 의해서 결정된다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,10 +347,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 이펙트를 발사하는데 필요한 시간은 ()값에 따라 결정한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">발사한 이펙트가 이동하는 속도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -414,10 +360,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 이펙트는 기를 모으는 느낌으로 시간이 지남에 따라 커지며 발사된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이펙트를 발사하는데 필요한 시간은 ()값에 따라 결정한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -445,10 +387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 모든 몬스터는 공격 전 전모 애니메이션을 출력한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">전조 예시 자료 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -457,10 +395,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터와의 플레이어 캐릭터 간의 거리 값은 미터 단위로 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 공격이 가능한 거리(AttackRange)에 들어온다면 즉시 공격 상태로 전환한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -497,18 +431,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터가 유저에게 공격 범위 값() 내에 근접 했을 경우 공격을 시작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격을 실행하기 위한 거리 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 범위는 ()값을 통해서 조절한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 몬스터는 공격 범위내에 플레이어가 존재할 경우 공격을 실행한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -521,10 +443,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 공격 후 Idle 상태 유지 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -534,14 +452,359 @@
   </si>
   <si>
     <t xml:space="preserve">2.2 몬스터(맥) 일반 공격 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 몬스터는 다음과 같은 룰을 따라 작동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 일반 공격 후 대기 시간 - &gt; 이후 스킬 공격 -&gt; 일반 공격 -&gt; 쿨타임이 돌았나? -&gt; 돌았으면 스킬 아님 일반 공격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 공격 애니메이션은 공격을 알리는 전조 애니메이션이 포함되어 있어야 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Idle 상태에서 추적 상태로 변경 되는 시간을 AttackSpeed 로 조정 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 후 Idle 상태로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 시 플레이어 캐릭터를 바라 보며 공격한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시 이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 발사 된 이후에도 점점 팽창하며 시간이 지나면 폭발한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterHP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 폭발 시 피해는 MonsterDamage + SkillDamage 값으로 계산한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 일반 공격 피해는 MonsterDamage 값으로 계산한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어와 충돌 시 피해를 입힌다 . </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어와 충돌 시 이펙트를 제거한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Monster_HP UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 HP는 몬스터의 상단에 위치한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 현재 체력 양을 표기한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 후 가장 첫공격은 일반 공격으로 진행 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 데미지 출력 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터가 입은 피해 만큼을 숫자 폰트로 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 꿈을 먹는 생물이라는 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 원거리에서 구를 발사하여 플레이어를 공격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점점 커지는 구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기를 모아서 공격 하는 느낌 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격을 실행하기 위한 호의 길이 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAngle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격을 실행하기 위한 호의 각도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 시 대기 상태로 스폰한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 공격 구현 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 값 120 / 두개 합쳐서 AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개 합쳐서 AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 발사된 이펙트의 이동 속도는 BulletSpeed에 따라 결정된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BulletSpeed </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 인지 -&gt; 공격 전조 -&gt; 이펙트 기모음 -&gt; 발사 -&gt; Idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 몬스터에게 피해를 입힐 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 숫자폰트 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BulletTime </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트를 발사하는데 필요한 시간은 애니메이터가 애니메이션에서 지정한 값에 따라 결정한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트는 발사 후 시간이 지남에 따라 삭제 되며 삭제 시간은 BulletTime 값을 통해서 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 발사 애니메이션 속도에 맞춰 이펙트의 크기가 커지는 속도를 조절한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저 혼자 할 수가 없어서 적는 내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_HP_Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체력을 숫자로 표기하는 폰트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_HP_Bar </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체력을 표기 하는 체력 바 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_HP_RedBar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">감소될 체력의 바 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*명칭 기획자가 맘대로 정했습니다 바꾸셔도 좋습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 팽창하는 시간은 ()이며 이펙터가 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 피해 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 데미지(MonsterDamage + 
+SkillDamage)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpolsionRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이펙트가 폭발 피해를 입히는 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 폭발 시 피해를 입히는 범위는 ExplosinRange 값으로 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이펙트의 중심에서 부터 거리를 잰다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니에 맞춰서 이펙트의 크기가 커져야 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니는 공격을 위한 기모으는 시간을 기획과 협의 해야합니다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기획은 기모으는 시간을 일반 공격 2초 정도로 생각하고 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니에 맞춰서 이펙트의 크기가 커져야 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니는 공격을 위한 기모으는 시간을 기획과 협의 해야합니다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기획은 기모으는 시간을 일반 공격 2초 정도로 생각하고 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트가 팽창하는 시간을 기획자와 협의해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 몬스터 피격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 콜라이더 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어와 동일한 캡슐 콜라이더를 활용한 피격 처리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 (맥)의 경우 공격 박스는 이펙트에만 존재 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI 내용 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확인용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">표기 위치 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터와 체력바의 사이 거리를 디자이너가 직접 조정 할 수 있도록 설계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 데미지 표기 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +856,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -725,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,9 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +1034,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -777,14 +1060,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,31 +1116,191 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>167077</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MjVfNzIg/MDAxNTY0MDMwNjg2MzM4.P4Zi2EnSvEadHtrkZ5sX2FUcQfPwWQ5MX844z8C6OAEg.9nWkn1iG35is8B2IKAyq86KkqATWI_BizLZgjw9-3xYg.PNG/%EB%A7%A5%ED%81%AC%EB%A6%AC%EC%B3%90%EC%9D%B4%ED%8E%99%ED%8A%B8%EC%A0%95%EB%A6%AC.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D709BBE3-05EA-4F6B-89A2-1685510279C0}"/>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2524125"/>
+          <a:ext cx="7048500" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MjVfNzIg/MDAxNTY0MDMwNjg2MzM4.P4Zi2EnSvEadHtrkZ5sX2FUcQfPwWQ5MX844z8C6OAEg.9nWkn1iG35is8B2IKAyq86KkqATWI_BizLZgjw9-3xYg.PNG/%EB%A7%A5%ED%81%AC%EB%A6%AC%EC%B3%90%EC%9D%B4%ED%8E%99%ED%8A%B8%EC%A0%95%EB%A6%AC.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="40675" b="50920"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="18297526"/>
+          <a:ext cx="4181475" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MjVfNzIg/MDAxNTY0MDMwNjg2MzM4.P4Zi2EnSvEadHtrkZ5sX2FUcQfPwWQ5MX844z8C6OAEg.9nWkn1iG35is8B2IKAyq86KkqATWI_BizLZgjw9-3xYg.PNG/%EB%A7%A5%ED%81%AC%EB%A6%AC%EC%B3%90%EC%9D%B4%ED%8E%99%ED%8A%B8%EC%A0%95%EB%A6%AC.png?type=w740"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32703" t="43558" r="23378"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="25784175"/>
+          <a:ext cx="3095625" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178104</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>43165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -846,8 +1313,233 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771526" y="6029325"/>
-          <a:ext cx="2581274" cy="2529277"/>
+          <a:off x="923925" y="12401550"/>
+          <a:ext cx="9369729" cy="1690990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263923</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7553325"/>
+          <a:ext cx="3121423" cy="3090940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>574713</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>97756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="28765500"/>
+          <a:ext cx="1908213" cy="2536156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="1762125"/>
+          <a:ext cx="5218628" cy="1633870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>630273</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1685925"/>
+          <a:ext cx="5535648" cy="1761897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1116740</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="4914900"/>
+          <a:ext cx="1793015" cy="2447925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,11 +1813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1154,20 +1846,26 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5">
@@ -1178,47 +1876,47 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -1226,22 +1924,22 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -1278,62 +1976,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:L109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1348,657 +2067,838 @@
   <sheetData>
     <row r="2" spans="2:9" ht="33.75">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="19"/>
-    </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="D14" t="s">
-        <v>38</v>
+      <c r="B14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="4" t="s">
-        <v>45</v>
+      <c r="B15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" t="s">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="F39" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="F41" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="F43" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="3"/>
+      <c r="C81" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" s="19"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J83" s="19"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="G87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="26.25">
+      <c r="B104" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="2:10" ht="54" customHeight="1">
+      <c r="B119" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" t="s">
+      <c r="I121" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L132" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12">
+      <c r="B133" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="L134" s="7"/>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="L135" s="7"/>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="L136" s="7"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="L137" s="7"/>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="L138" s="7"/>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="L139" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="L140" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="3"/>
-      <c r="C57" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="3" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="26.25">
+      <c r="B152" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="L57" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="3"/>
-      <c r="C58" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="10"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="3"/>
-      <c r="C59" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" s="10"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="3"/>
-      <c r="C60" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="10"/>
-      <c r="L60" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="3"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="L61" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="3"/>
-      <c r="C95" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="3"/>
-      <c r="C96" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="3"/>
-      <c r="C97" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="3"/>
-      <c r="C98" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J99" s="13"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="H105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" t="s">
-        <v>84</v>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C13:G13"/>
+  <mergeCells count="36">
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="I119:J119"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I82:J82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2008,20 +2908,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75">
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D35:G35"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2032,43 +3119,17 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>